--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43667,6 +43667,41 @@
         <v>448500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>660600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43702,6 +43702,41 @@
         <v>660600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>592900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43737,6 +43737,41 @@
         <v>592900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1186800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43772,6 +43772,41 @@
         <v>1186800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>538700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43807,6 +43807,41 @@
         <v>538700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>524600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43842,6 +43842,41 @@
         <v>524600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>594700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43877,6 +43877,41 @@
         <v>594700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>308900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43912,6 +43912,41 @@
         <v>308900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>178800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43947,6 +43947,41 @@
         <v>178800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>487400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43982,6 +43982,41 @@
         <v>487400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>603800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44017,6 +44017,41 @@
         <v>603800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>404200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44052,6 +44052,41 @@
         <v>404200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>189600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44087,6 +44087,76 @@
         <v>189600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>219500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>502500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44157,6 +44157,76 @@
         <v>502500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>575900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>288000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44227,6 +44227,41 @@
         <v>288000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>165200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44262,6 +44262,41 @@
         <v>165200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>459300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44297,6 +44297,41 @@
         <v>459300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>211300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44332,6 +44332,41 @@
         <v>211300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>539500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44367,6 +44367,76 @@
         <v>539500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>383100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>283100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44437,6 +44437,41 @@
         <v>283100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>216400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44472,6 +44472,41 @@
         <v>216400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>611900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2380"/>
+  <dimension ref="A1:I2381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84372,6 +84372,41 @@
         <v>611900</v>
       </c>
     </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2381" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2381" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H2381" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2381" t="n">
+        <v>346300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2381"/>
+  <dimension ref="A1:I2382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84407,6 +84407,41 @@
         <v>346300</v>
       </c>
     </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2382" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2382" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2382" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2382" t="n">
+        <v>511500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2382"/>
+  <dimension ref="A1:I2383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84442,6 +84442,41 @@
         <v>511500</v>
       </c>
     </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2383" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G2383" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H2383" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I2383" t="n">
+        <v>643200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2383"/>
+  <dimension ref="A1:I2384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84477,6 +84477,41 @@
         <v>643200</v>
       </c>
     </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2384" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2384" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2384" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I2384" t="n">
+        <v>907700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2384"/>
+  <dimension ref="A1:I2385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84512,6 +84512,41 @@
         <v>907700</v>
       </c>
     </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2385" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G2385" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H2385" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I2385" t="n">
+        <v>891600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2385"/>
+  <dimension ref="A1:I2386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84547,6 +84547,41 @@
         <v>891600</v>
       </c>
     </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2386" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G2386" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H2386" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I2386" t="n">
+        <v>504800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2386"/>
+  <dimension ref="A1:I2387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84582,6 +84582,41 @@
         <v>504800</v>
       </c>
     </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2387" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G2387" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H2387" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2387" t="n">
+        <v>821700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2387"/>
+  <dimension ref="A1:I2388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84617,6 +84617,41 @@
         <v>821700</v>
       </c>
     </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2388" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2388" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H2388" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I2388" t="n">
+        <v>760600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2388"/>
+  <dimension ref="A1:I2389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84652,6 +84652,41 @@
         <v>760600</v>
       </c>
     </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2389" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G2389" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H2389" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I2389" t="n">
+        <v>827500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2389"/>
+  <dimension ref="A1:I2390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84687,6 +84687,41 @@
         <v>827500</v>
       </c>
     </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2390" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H2390" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I2390" t="n">
+        <v>899600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2390"/>
+  <dimension ref="A1:I2391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84722,6 +84722,41 @@
         <v>899600</v>
       </c>
     </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2391" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G2391" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2391" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2391" t="n">
+        <v>1444800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2391"/>
+  <dimension ref="A1:I2392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84757,6 +84757,41 @@
         <v>1444800</v>
       </c>
     </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2392" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G2392" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H2392" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2392" t="n">
+        <v>1451300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2392"/>
+  <dimension ref="A1:I2393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84792,6 +84792,41 @@
         <v>1451300</v>
       </c>
     </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2393" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F2393" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2393" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2393" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I2393" t="n">
+        <v>1721100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2393"/>
+  <dimension ref="A1:I2394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84827,6 +84827,41 @@
         <v>1721100</v>
       </c>
     </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2394" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G2394" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H2394" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I2394" t="n">
+        <v>1671500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9237.xlsx
+++ b/data/9237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2394"/>
+  <dimension ref="A1:I2395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84862,6 +84862,41 @@
         <v>1671500</v>
       </c>
     </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>SCIB</t>
+        </is>
+      </c>
+      <c r="E2395" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G2395" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H2395" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I2395" t="n">
+        <v>3124200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
